--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -598,15 +598,6 @@
   </x:si>
   <x:si>
     <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>
@@ -785,7 +776,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E72" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E71" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1085,7 +1076,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T72"/>
+  <x:dimension ref="A1:T71"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3192,7 +3183,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45913.8698584143</x:v>
+        <x:v>45909.4149039352</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3224,7 +3215,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45909.4149039352</x:v>
+        <x:v>45913.7372066319</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3256,7 +3247,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.7372066319</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3288,7 +3279,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3320,7 +3311,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45913.7001969097</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3352,7 +3343,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45913.7001969097</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3384,7 +3375,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3401,38 +3392,6 @@
       <x:c r="R71" s="2" t="s"/>
       <x:c r="S71" s="2" t="s"/>
       <x:c r="T71" s="2" t="s"/>
-    </x:row>
-    <x:row r="72" spans="1:20">
-      <x:c r="A72" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B72" s="2" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="C72" s="2" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="D72" s="2" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="E72" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F72" s="2" t="s"/>
-      <x:c r="G72" s="2" t="s"/>
-      <x:c r="H72" s="2" t="s"/>
-      <x:c r="I72" s="2" t="s"/>
-      <x:c r="J72" s="2" t="s"/>
-      <x:c r="K72" s="2" t="s"/>
-      <x:c r="L72" s="2" t="s"/>
-      <x:c r="M72" s="2" t="s"/>
-      <x:c r="N72" s="2" t="s"/>
-      <x:c r="O72" s="2" t="s"/>
-      <x:c r="P72" s="2" t="s"/>
-      <x:c r="Q72" s="2" t="s"/>
-      <x:c r="R72" s="2" t="s"/>
-      <x:c r="S72" s="2" t="s"/>
-      <x:c r="T72" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -454,6 +454,15 @@
   </x:si>
   <x:si>
     <x:t>Mazen Mohamed Helmy Sayed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1220140</x:t>
@@ -776,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E71" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E72" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1076,7 +1085,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T71"/>
+  <x:dimension ref="A1:T72"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2671,7 +2680,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45926.5741745718</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2703,7 +2712,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4149297106</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2735,7 +2744,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45909.4149297106</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2767,7 +2776,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2799,7 +2808,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45909.4149391204</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2831,7 +2840,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.4150503819</x:v>
+        <x:v>45909.4149391204</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2863,7 +2872,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3151554051</x:v>
+        <x:v>45909.4150503819</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2895,7 +2904,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45909.4149851042</x:v>
+        <x:v>45912.3151554051</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2927,7 +2936,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45913.7117591435</x:v>
+        <x:v>45909.4149851042</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2959,7 +2968,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45909.4150237269</x:v>
+        <x:v>45913.7117591435</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2991,7 +3000,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45909.4148934028</x:v>
+        <x:v>45909.4150237269</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -3023,7 +3032,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6651491551</x:v>
+        <x:v>45909.4148934028</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -3055,7 +3064,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6651491551</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3087,7 +3096,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45909.4152512384</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3119,7 +3128,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45913.6996846875</x:v>
+        <x:v>45909.4152512384</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3151,7 +3160,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45913.6996846875</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3183,7 +3192,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45909.4149039352</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3215,7 +3224,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45913.7372066319</x:v>
+        <x:v>45909.4149039352</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3247,7 +3256,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45913.7372066319</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3279,7 +3288,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3311,7 +3320,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45913.7001969097</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3343,7 +3352,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45913.7001969097</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3375,7 +3384,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3392,6 +3401,38 @@
       <x:c r="R71" s="2" t="s"/>
       <x:c r="S71" s="2" t="s"/>
       <x:c r="T71" s="2" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:20">
+      <x:c r="A72" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D72" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E72" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F72" s="2" t="s"/>
+      <x:c r="G72" s="2" t="s"/>
+      <x:c r="H72" s="2" t="s"/>
+      <x:c r="I72" s="2" t="s"/>
+      <x:c r="J72" s="2" t="s"/>
+      <x:c r="K72" s="2" t="s"/>
+      <x:c r="L72" s="2" t="s"/>
+      <x:c r="M72" s="2" t="s"/>
+      <x:c r="N72" s="2" t="s"/>
+      <x:c r="O72" s="2" t="s"/>
+      <x:c r="P72" s="2" t="s"/>
+      <x:c r="Q72" s="2" t="s"/>
+      <x:c r="R72" s="2" t="s"/>
+      <x:c r="S72" s="2" t="s"/>
+      <x:c r="T72" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -598,6 +598,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1220150</x:t>
@@ -785,7 +794,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E72" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1085,7 +1094,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T72"/>
+  <x:dimension ref="A1:T73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3192,7 +3201,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E65" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F65" s="2" t="s"/>
       <x:c r="G65" s="2" t="s"/>
@@ -3224,7 +3233,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E66" s="3">
-        <x:v>45909.4149039352</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F66" s="2" t="s"/>
       <x:c r="G66" s="2" t="s"/>
@@ -3256,7 +3265,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E67" s="3">
-        <x:v>45913.7372066319</x:v>
+        <x:v>45909.4149039352</x:v>
       </x:c>
       <x:c r="F67" s="2" t="s"/>
       <x:c r="G67" s="2" t="s"/>
@@ -3288,7 +3297,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E68" s="3">
-        <x:v>45913.7205501968</x:v>
+        <x:v>45913.7372066319</x:v>
       </x:c>
       <x:c r="F68" s="2" t="s"/>
       <x:c r="G68" s="2" t="s"/>
@@ -3320,7 +3329,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="E69" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -3352,7 +3361,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E70" s="3">
-        <x:v>45913.7001969097</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F70" s="2" t="s"/>
       <x:c r="G70" s="2" t="s"/>
@@ -3384,7 +3393,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E71" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45913.7001969097</x:v>
       </x:c>
       <x:c r="F71" s="2" t="s"/>
       <x:c r="G71" s="2" t="s"/>
@@ -3416,7 +3425,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E72" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F72" s="2" t="s"/>
       <x:c r="G72" s="2" t="s"/>
@@ -3433,6 +3442,38 @@
       <x:c r="R72" s="2" t="s"/>
       <x:c r="S72" s="2" t="s"/>
       <x:c r="T72" s="2" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:20">
+      <x:c r="A73" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D73" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="E73" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F73" s="2" t="s"/>
+      <x:c r="G73" s="2" t="s"/>
+      <x:c r="H73" s="2" t="s"/>
+      <x:c r="I73" s="2" t="s"/>
+      <x:c r="J73" s="2" t="s"/>
+      <x:c r="K73" s="2" t="s"/>
+      <x:c r="L73" s="2" t="s"/>
+      <x:c r="M73" s="2" t="s"/>
+      <x:c r="N73" s="2" t="s"/>
+      <x:c r="O73" s="2" t="s"/>
+      <x:c r="P73" s="2" t="s"/>
+      <x:c r="Q73" s="2" t="s"/>
+      <x:c r="R73" s="2" t="s"/>
+      <x:c r="S73" s="2" t="s"/>
+      <x:c r="T73" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -75,7 +75,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1210196</x:t>
@@ -111,7 +111,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1220165</x:t>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -255,7 +255,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>
@@ -291,7 +291,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220182</x:t>
@@ -327,7 +327,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220257</x:t>
@@ -480,7 +480,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -579,7 +579,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230116</x:t>
@@ -615,7 +615,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -219,7 +219,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230033</x:t>
@@ -273,7 +273,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1210014</x:t>
@@ -417,7 +417,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1210280</x:t>
@@ -462,7 +462,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1220140</x:t>
@@ -552,7 +552,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -624,7 +624,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1220289</x:t>
@@ -1103,7 +1103,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -255,7 +255,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>

--- a/downloaded_files/CMPS302_Lecture-35561.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35561.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1220113</x:t>
@@ -336,7 +336,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -390,7 +390,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220071</x:t>
